--- a/data/evaluation/evaluation_Center_Winter_Grapefruits.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Grapefruits.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1700.4625</v>
+        <v>1692.9625</v>
       </c>
       <c r="C3" t="n">
-        <v>7160038.746875</v>
+        <v>7147663.746875</v>
       </c>
       <c r="D3" t="n">
-        <v>2675.824872235662</v>
+        <v>2673.511501167519</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1957322598055211</v>
+        <v>0.1971223100045163</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1651.613879295704</v>
+        <v>1785.909506222944</v>
       </c>
       <c r="C4" t="n">
-        <v>6838059.120727668</v>
+        <v>7286175.752890602</v>
       </c>
       <c r="D4" t="n">
-        <v>2614.968282929578</v>
+        <v>2699.291713188962</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2318993582619646</v>
+        <v>0.1815636319014693</v>
       </c>
     </row>
     <row r="5">
